--- a/VerificareFacturi/Proiect verificare facturi/StatusFile.xlsx
+++ b/VerificareFacturi/Proiect verificare facturi/StatusFile.xlsx
@@ -14,7 +14,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <x:si>
+    <x:t>Transaction_CUI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Status</x:t>
+  </x:si>
   <x:si>
     <x:t>13213413</x:t>
   </x:si>
@@ -395,15 +401,23 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:2">
       <x:c r="A3" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B3" s="0" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="B3" s="0" t="s">
-        <x:v>1</x:v>
+    </x:row>
+    <x:row r="4" spans="1:2">
+      <x:c r="A4" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="s">
+        <x:v>3</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
